--- a/画面設計/【画面設計】05_ユーザ新規登録.xlsx
+++ b/画面設計/【画面設計】05_ユーザ新規登録.xlsx
@@ -12,14 +12,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId8" roundtripDataChecksum="dnsmsR/ajXOTjar+J4KDSr+vgUiEdbGKbUHK0oRSoYU="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId8" roundtripDataChecksum="hKuHZ9F0KpIkWgZSWa7jH97j2Q+vY89pTXN47VfHrRo="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="145">
   <si>
     <t>アプリ課題(2025）</t>
   </si>
@@ -413,7 +413,10 @@
                   変数.パスワード忘れた時の質問の回答</t>
   </si>
   <si>
-    <t xml:space="preserve">          　取得OK→ 登録後に、遷移時にCookieにユーザIDを保存して、画面「ユーザ管理(トップ)」へ遷移すること。</t>
+    <t xml:space="preserve">          　取得OK→ 実行結果=trueの場合、遷移時にCookieにユーザIDを保存して、画面「ユーザ管理(トップ)」へ遷移すること。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                              実行結果=falseの場合、画面エラーを表示すること。</t>
   </si>
   <si>
     <t xml:space="preserve">          　取得NG→ 画面エラーを表示すること。</t>
@@ -29892,7 +29895,7 @@
     <row r="22" ht="18.75" customHeight="1">
       <c r="A22" s="82"/>
       <c r="B22" s="82"/>
-      <c r="C22" s="94" t="s">
+      <c r="C22" s="93" t="s">
         <v>119</v>
       </c>
       <c r="D22" s="45"/>
@@ -29917,8 +29920,10 @@
     <row r="23" ht="18.75" customHeight="1">
       <c r="A23" s="82"/>
       <c r="B23" s="82"/>
-      <c r="C23" s="82"/>
-      <c r="D23" s="82"/>
+      <c r="C23" s="94" t="s">
+        <v>120</v>
+      </c>
+      <c r="D23" s="45"/>
       <c r="E23" s="82"/>
       <c r="F23" s="82"/>
       <c r="G23" s="82"/>
@@ -51004,6 +51009,29 @@
       <c r="S939" s="82"/>
       <c r="T939" s="82"/>
       <c r="U939" s="82"/>
+    </row>
+    <row r="940" ht="18.75" customHeight="1">
+      <c r="A940" s="82"/>
+      <c r="B940" s="82"/>
+      <c r="C940" s="82"/>
+      <c r="D940" s="82"/>
+      <c r="E940" s="82"/>
+      <c r="F940" s="82"/>
+      <c r="G940" s="82"/>
+      <c r="H940" s="82"/>
+      <c r="I940" s="82"/>
+      <c r="J940" s="82"/>
+      <c r="K940" s="82"/>
+      <c r="L940" s="82"/>
+      <c r="M940" s="82"/>
+      <c r="N940" s="82"/>
+      <c r="O940" s="82"/>
+      <c r="P940" s="82"/>
+      <c r="Q940" s="82"/>
+      <c r="R940" s="82"/>
+      <c r="S940" s="82"/>
+      <c r="T940" s="82"/>
+      <c r="U940" s="82"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -51070,11 +51098,11 @@
     </row>
     <row r="24">
       <c r="B24" s="100" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D24" s="99"/>
       <c r="F24" s="100" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="J24" s="99"/>
     </row>
@@ -51083,7 +51111,7 @@
       <c r="C25" s="101"/>
       <c r="D25" s="99"/>
       <c r="F25" s="100" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="J25" s="99"/>
     </row>
@@ -51095,17 +51123,17 @@
     </row>
     <row r="27">
       <c r="B27" s="100" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D27" s="99"/>
       <c r="F27" s="100" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="J27" s="99"/>
     </row>
     <row r="28">
       <c r="B28" s="100" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D28" s="99"/>
       <c r="F28" s="100"/>
@@ -51121,11 +51149,11 @@
     </row>
     <row r="30">
       <c r="B30" s="100" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D30" s="99"/>
       <c r="F30" s="100" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="J30" s="99"/>
     </row>
@@ -51133,7 +51161,7 @@
       <c r="B31" s="98"/>
       <c r="C31" s="101"/>
       <c r="D31" s="103" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F31" s="98"/>
       <c r="G31" s="102"/>
@@ -51148,11 +51176,11 @@
     </row>
     <row r="33">
       <c r="B33" s="100" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D33" s="99"/>
       <c r="F33" s="100" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="J33" s="99"/>
     </row>
@@ -51160,15 +51188,15 @@
       <c r="B34" s="98"/>
       <c r="C34" s="101"/>
       <c r="D34" s="103" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F34" s="98"/>
       <c r="G34" s="104" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H34" s="104"/>
       <c r="I34" s="105" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="J34" s="103"/>
     </row>
@@ -51180,18 +51208,18 @@
     </row>
     <row r="36">
       <c r="B36" s="106" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D36" s="99"/>
       <c r="F36" s="100" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="J36" s="99"/>
     </row>
     <row r="37">
       <c r="B37" s="98"/>
       <c r="C37" s="107" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D37" s="99"/>
       <c r="F37" s="98"/>
@@ -51202,7 +51230,7 @@
     <row r="38">
       <c r="B38" s="98"/>
       <c r="C38" s="107" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D38" s="99"/>
       <c r="F38" s="98"/>
@@ -51211,7 +51239,7 @@
     <row r="39">
       <c r="B39" s="98"/>
       <c r="C39" s="107" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D39" s="99"/>
       <c r="F39" s="98"/>
@@ -51220,7 +51248,7 @@
     <row r="40">
       <c r="B40" s="98"/>
       <c r="C40" s="107" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D40" s="99"/>
       <c r="F40" s="98"/>
@@ -51232,7 +51260,7 @@
     <row r="41">
       <c r="B41" s="98"/>
       <c r="C41" s="107" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D41" s="99"/>
       <c r="F41" s="98"/>
@@ -51241,12 +51269,12 @@
     <row r="42">
       <c r="B42" s="98"/>
       <c r="C42" s="107" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D42" s="99"/>
       <c r="F42" s="98"/>
       <c r="G42" s="109" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="J42" s="99"/>
     </row>
@@ -51258,7 +51286,7 @@
     </row>
     <row r="44">
       <c r="B44" s="106" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D44" s="99"/>
       <c r="F44" s="98"/>
@@ -51267,7 +51295,7 @@
     <row r="45">
       <c r="B45" s="98"/>
       <c r="C45" s="107" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D45" s="99"/>
       <c r="F45" s="98"/>
